--- a/docs/RESNET.xlsx
+++ b/docs/RESNET.xlsx
@@ -18355,6 +18355,7 @@
           <c:smooth val="1"/>
         </c:ser>
         <c:dLbls>
+          <c:dLblPos val="t"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -18362,11 +18363,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="491800424"/>
-        <c:axId val="491807480"/>
+        <c:axId val="121625488"/>
+        <c:axId val="121625880"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="491800424"/>
+        <c:axId val="121625488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="16000"/>
@@ -18387,6 +18388,20 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
         <c:title>
           <c:tx>
             <c:rich>
@@ -18480,15 +18495,16 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="491807480"/>
+        <c:crossAx val="121625880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="491807480"/>
+        <c:axId val="121625880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:min val="0.65000000000000013"/>
+          <c:max val="0.95000000000000007"/>
+          <c:min val="0.70000000000000007"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -18506,6 +18522,20 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
         <c:title>
           <c:tx>
             <c:rich>
@@ -18604,7 +18634,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="491800424"/>
+        <c:crossAx val="121625488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -18720,7 +18750,15 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Flowers Dataset</a:t>
+              <a:t>Paintings</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Dataset</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -19430,44 +19468,16 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="582617488"/>
-        <c:axId val="582628464"/>
+        <c:axId val="121623528"/>
+        <c:axId val="121624312"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="582617488"/>
+        <c:axId val="121623528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:minorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="5000"/>
-                  <a:lumOff val="95000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:minorGridlines>
         <c:title>
           <c:tx>
             <c:rich>
@@ -19525,7 +19535,7 @@
           </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
+        <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
@@ -19542,7 +19552,7 @@
           <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="t" anchorCtr="1"/>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="t" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
@@ -19561,17 +19571,20 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="582628464"/>
+        <c:crossAx val="121624312"/>
         <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
+        <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:tickMarkSkip val="1"/>
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="582628464"/>
+        <c:axId val="121624312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="0.65000000000000013"/>
+          <c:min val="0.25"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -19589,20 +19602,6 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:minorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="5000"/>
-                  <a:lumOff val="95000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:minorGridlines>
         <c:title>
           <c:tx>
             <c:rich>
@@ -19660,7 +19659,7 @@
           </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
+        <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
@@ -19690,7 +19689,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="582617488"/>
+        <c:crossAx val="121623528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -20896,8 +20895,8 @@
       <xdr:rowOff>66676</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>209550</xdr:colOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>9526</xdr:rowOff>
     </xdr:to>
@@ -21211,7 +21210,7 @@
   <dimension ref="A1:I1001"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+      <selection activeCell="M30" sqref="M30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -35334,7 +35333,7 @@
   <dimension ref="A1:B101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T12" sqref="T12"/>
+      <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
